--- a/data/sample_data.xlsx
+++ b/data/sample_data.xlsx
@@ -2,18 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\kdaquila_SoftwareDev\By_Name\python_tools_for_powerpoint\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\kdaquila_SoftwareDev\By_Name\python_tools_for_powerpoint\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDF8453-379E-4958-9124-953EE7D442C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FC2C87-D3BA-4723-9AA1-9FD95B0125EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{8940C5B4-48AF-49C7-B6B1-2EAE2F1D7C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Colors" sheetId="3" r:id="rId2"/>
+    <sheet name="Summary Data" sheetId="2" r:id="rId3"/>
+    <sheet name="Sample" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Version</t>
   </si>
@@ -41,9 +44,6 @@
     <t>Header</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>Header Name 1</t>
   </si>
   <si>
@@ -75,13 +75,181 @@
   </si>
   <si>
     <t>Category Name</t>
+  </si>
+  <si>
+    <t>ED7D31</t>
+  </si>
+  <si>
+    <t>FFFFFF</t>
+  </si>
+  <si>
+    <t>F2F2F2</t>
+  </si>
+  <si>
+    <t>D9D9D9</t>
+  </si>
+  <si>
+    <t>BFBFBF</t>
+  </si>
+  <si>
+    <t>A6A6A6</t>
+  </si>
+  <si>
+    <t>0D0D0D</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>E7E6E6</t>
+  </si>
+  <si>
+    <t>D0CECE</t>
+  </si>
+  <si>
+    <t>AEAAAA</t>
+  </si>
+  <si>
+    <t>757171</t>
+  </si>
+  <si>
+    <t>3A3838</t>
+  </si>
+  <si>
+    <t>161616</t>
+  </si>
+  <si>
+    <t>44546A</t>
+  </si>
+  <si>
+    <t>D6DCE4</t>
+  </si>
+  <si>
+    <t>ACB9CA</t>
+  </si>
+  <si>
+    <t>8497B0</t>
+  </si>
+  <si>
+    <t>333F4F</t>
+  </si>
+  <si>
+    <t>222B35</t>
+  </si>
+  <si>
+    <t>4472C4</t>
+  </si>
+  <si>
+    <t>D9E1F2</t>
+  </si>
+  <si>
+    <t>B4C6E7</t>
+  </si>
+  <si>
+    <t>8EA9DB</t>
+  </si>
+  <si>
+    <t>305496</t>
+  </si>
+  <si>
+    <t>203764</t>
+  </si>
+  <si>
+    <t>FCE4D6</t>
+  </si>
+  <si>
+    <t>F8CBAD</t>
+  </si>
+  <si>
+    <t>F4B084</t>
+  </si>
+  <si>
+    <t>C65911</t>
+  </si>
+  <si>
+    <t>833C0C</t>
+  </si>
+  <si>
+    <t>A5A5A5</t>
+  </si>
+  <si>
+    <t>EDEDED</t>
+  </si>
+  <si>
+    <t>DBDBDB</t>
+  </si>
+  <si>
+    <t>C9C9C9</t>
+  </si>
+  <si>
+    <t>7B7B7B</t>
+  </si>
+  <si>
+    <t>525252</t>
+  </si>
+  <si>
+    <t>FFC000</t>
+  </si>
+  <si>
+    <t>FFF2CC</t>
+  </si>
+  <si>
+    <t>FFE699</t>
+  </si>
+  <si>
+    <t>FFD966</t>
+  </si>
+  <si>
+    <t>BF8F00</t>
+  </si>
+  <si>
+    <t>806000</t>
+  </si>
+  <si>
+    <t>5B9BD5</t>
+  </si>
+  <si>
+    <t>DDEBF7</t>
+  </si>
+  <si>
+    <t>BDD7EE</t>
+  </si>
+  <si>
+    <t>9BC2E6</t>
+  </si>
+  <si>
+    <t>2F75B5</t>
+  </si>
+  <si>
+    <t>1F4E78</t>
+  </si>
+  <si>
+    <t>70AD47</t>
+  </si>
+  <si>
+    <t>E2EFDA</t>
+  </si>
+  <si>
+    <t>C6E0B4</t>
+  </si>
+  <si>
+    <t>A9D08E</t>
+  </si>
+  <si>
+    <t>548235</t>
+  </si>
+  <si>
+    <t>375623</t>
+  </si>
+  <si>
+    <t>Hello</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +263,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="63">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,8 +310,356 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -145,11 +682,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -157,16 +709,228 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="58" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="57" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="47" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="53" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="59" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="54" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="60" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="55" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="61" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="62" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="58" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="46" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -175,6 +939,20 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF375623"/>
+      <color rgb="FF548235"/>
+      <color rgb="FFA9D08E"/>
+      <color rgb="FFC6E0B4"/>
+      <color rgb="FFE2EFDA"/>
+      <color rgb="FF70AD47"/>
+      <color rgb="FF1F4E78"/>
+      <color rgb="FF2F75B5"/>
+      <color rgb="FF9BC2E6"/>
+      <color rgb="FFBDD7EE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -483,10 +1261,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA95D90-776B-46C2-8562-014857B259E3}">
-  <dimension ref="A1:H16"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -495,343 +1274,437 @@
     <col min="9" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="2" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="3" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="74"/>
+      <c r="B4" s="72" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="73">
+        <f>'Summary Data'!A1</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="73">
+        <f>'Summary Data'!B1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="73">
+        <f>'Summary Data'!C1</f>
+        <v>4</v>
+      </c>
+      <c r="D5" s="73">
+        <f>'Summary Data'!D1</f>
+        <v>8</v>
+      </c>
+      <c r="E5" s="73">
+        <f>'Summary Data'!E1</f>
+        <v>16</v>
+      </c>
+      <c r="F5" s="73">
+        <f>'Summary Data'!F1</f>
+        <v>32</v>
+      </c>
+      <c r="G5" s="73">
+        <f>'Summary Data'!G1</f>
+        <v>64</v>
+      </c>
+      <c r="H5" s="73">
+        <f>'Summary Data'!H1</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="73">
+        <f>'Summary Data'!A2</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="73">
+        <f>'Summary Data'!B2</f>
+        <v>4</v>
+      </c>
+      <c r="C6" s="73">
+        <f>'Summary Data'!C2</f>
+        <v>8</v>
+      </c>
+      <c r="D6" s="73">
+        <f>'Summary Data'!D2</f>
+        <v>16</v>
+      </c>
+      <c r="E6" s="76">
+        <f>'Summary Data'!E2</f>
+        <v>32</v>
+      </c>
+      <c r="F6" s="73">
+        <f>'Summary Data'!F2</f>
+        <v>64</v>
+      </c>
+      <c r="G6" s="73">
+        <f>'Summary Data'!G2</f>
+        <v>128</v>
+      </c>
+      <c r="H6" s="73">
+        <f>'Summary Data'!H2</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="73">
+        <f>'Summary Data'!A3</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="73">
+        <f>'Summary Data'!B3</f>
+        <v>6</v>
+      </c>
+      <c r="C7" s="73">
+        <f>'Summary Data'!C3</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="4">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="4">
+      <c r="D7" s="73">
+        <f>'Summary Data'!D3</f>
+        <v>24</v>
+      </c>
+      <c r="E7" s="76">
+        <f>'Summary Data'!E3</f>
+        <v>48</v>
+      </c>
+      <c r="F7" s="73">
+        <f>'Summary Data'!F3</f>
+        <v>96</v>
+      </c>
+      <c r="G7" s="73">
+        <f>'Summary Data'!G3</f>
+        <v>192</v>
+      </c>
+      <c r="H7" s="78">
+        <f>'Summary Data'!H3</f>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="73">
+        <f>'Summary Data'!A4</f>
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="4">
+      <c r="B8" s="73">
+        <f>'Summary Data'!B4</f>
+        <v>8</v>
+      </c>
+      <c r="C8" s="76">
+        <f>'Summary Data'!C4</f>
+        <v>16</v>
+      </c>
+      <c r="D8" s="73">
+        <f>'Summary Data'!D4</f>
+        <v>32</v>
+      </c>
+      <c r="E8" s="76">
+        <f>'Summary Data'!E4</f>
+        <v>64</v>
+      </c>
+      <c r="F8" s="73">
+        <f>'Summary Data'!F4</f>
+        <v>128</v>
+      </c>
+      <c r="G8" s="73">
+        <f>'Summary Data'!G4</f>
+        <v>256</v>
+      </c>
+      <c r="H8" s="78">
+        <f>'Summary Data'!H4</f>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="73">
+        <f>'Summary Data'!A5</f>
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="4">
+      <c r="B9" s="73">
+        <f>'Summary Data'!B5</f>
+        <v>10</v>
+      </c>
+      <c r="C9" s="76">
+        <f>'Summary Data'!C5</f>
+        <v>20</v>
+      </c>
+      <c r="D9" s="73">
+        <f>'Summary Data'!D5</f>
+        <v>40</v>
+      </c>
+      <c r="E9" s="76">
+        <f>'Summary Data'!E5</f>
+        <v>80</v>
+      </c>
+      <c r="F9" s="73">
+        <f>'Summary Data'!F5</f>
+        <v>160</v>
+      </c>
+      <c r="G9" s="73">
+        <f>'Summary Data'!G5</f>
+        <v>320</v>
+      </c>
+      <c r="H9" s="78">
+        <f>'Summary Data'!H5</f>
+        <v>640</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="73">
+        <f>'Summary Data'!A6</f>
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="4">
+      <c r="B10" s="73">
+        <f>'Summary Data'!B6</f>
+        <v>12</v>
+      </c>
+      <c r="C10" s="76">
+        <f>'Summary Data'!C6</f>
+        <v>24</v>
+      </c>
+      <c r="D10" s="73">
+        <f>'Summary Data'!D6</f>
+        <v>48</v>
+      </c>
+      <c r="E10" s="73">
+        <f>'Summary Data'!E6</f>
+        <v>96</v>
+      </c>
+      <c r="F10" s="73">
+        <f>'Summary Data'!F6</f>
+        <v>192</v>
+      </c>
+      <c r="G10" s="73">
+        <f>'Summary Data'!G6</f>
+        <v>384</v>
+      </c>
+      <c r="H10" s="78">
+        <f>'Summary Data'!H6</f>
+        <v>768</v>
+      </c>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="73">
+        <f>'Summary Data'!A7</f>
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="4">
+      <c r="B11" s="73">
+        <f>'Summary Data'!B7</f>
+        <v>14</v>
+      </c>
+      <c r="C11" s="76">
+        <f>'Summary Data'!C7</f>
+        <v>28</v>
+      </c>
+      <c r="D11" s="77">
+        <f>'Summary Data'!D7</f>
+        <v>56</v>
+      </c>
+      <c r="E11" s="77">
+        <f>'Summary Data'!E7</f>
+        <v>112</v>
+      </c>
+      <c r="F11" s="77">
+        <f>'Summary Data'!F7</f>
+        <v>224</v>
+      </c>
+      <c r="G11" s="73">
+        <f>'Summary Data'!G7</f>
+        <v>448</v>
+      </c>
+      <c r="H11" s="78">
+        <f>'Summary Data'!H7</f>
+        <v>896</v>
+      </c>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="73">
+        <f>'Summary Data'!A8</f>
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="4">
+      <c r="B12" s="73">
+        <f>'Summary Data'!B8</f>
+        <v>16</v>
+      </c>
+      <c r="C12" s="73">
+        <f>'Summary Data'!C8</f>
+        <v>32</v>
+      </c>
+      <c r="D12" s="73">
+        <f>'Summary Data'!D8</f>
+        <v>64</v>
+      </c>
+      <c r="E12" s="73">
+        <f>'Summary Data'!E8</f>
+        <v>128</v>
+      </c>
+      <c r="F12" s="73">
+        <f>'Summary Data'!F8</f>
+        <v>256</v>
+      </c>
+      <c r="G12" s="73">
+        <f>'Summary Data'!G8</f>
+        <v>512</v>
+      </c>
+      <c r="H12" s="73">
+        <f>'Summary Data'!H8</f>
+        <v>1024</v>
+      </c>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="73">
+        <f>'Summary Data'!A9</f>
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="4">
+      <c r="B13" s="73">
+        <f>'Summary Data'!B9</f>
+        <v>18</v>
+      </c>
+      <c r="C13" s="73">
+        <f>'Summary Data'!C9</f>
+        <v>36</v>
+      </c>
+      <c r="D13" s="73">
+        <f>'Summary Data'!D9</f>
+        <v>72</v>
+      </c>
+      <c r="E13" s="73">
+        <f>'Summary Data'!E9</f>
+        <v>144</v>
+      </c>
+      <c r="F13" s="73">
+        <f>'Summary Data'!F9</f>
+        <v>288</v>
+      </c>
+      <c r="G13" s="73">
+        <f>'Summary Data'!G9</f>
+        <v>576</v>
+      </c>
+      <c r="H13" s="73">
+        <f>'Summary Data'!H9</f>
+        <v>1152</v>
+      </c>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="73">
+        <f>'Summary Data'!A10</f>
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="4">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="B14" s="73">
+        <f>'Summary Data'!B10</f>
+        <v>20</v>
+      </c>
+      <c r="C14" s="73">
+        <f>'Summary Data'!C10</f>
+        <v>40</v>
+      </c>
+      <c r="D14" s="73">
+        <f>'Summary Data'!D10</f>
+        <v>80</v>
+      </c>
+      <c r="E14" s="73">
+        <f>'Summary Data'!E10</f>
+        <v>160</v>
+      </c>
+      <c r="F14" s="73">
+        <f>'Summary Data'!F10</f>
+        <v>320</v>
+      </c>
+      <c r="G14" s="73">
+        <f>'Summary Data'!G10</f>
+        <v>640</v>
+      </c>
+      <c r="H14" s="73">
+        <f>'Summary Data'!H10</f>
+        <v>1280</v>
+      </c>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="73">
+        <f>'Summary Data'!A11</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="73">
+        <f>'Summary Data'!B11</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="73">
+        <f>'Summary Data'!C11</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="73">
+        <f>'Summary Data'!D11</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="73">
+        <f>'Summary Data'!E11</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="73">
+        <f>'Summary Data'!F11</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="73">
+        <f>'Summary Data'!G11</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="73">
+        <f>'Summary Data'!H11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:A4"/>
@@ -841,4 +1714,514 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561610D9-B5C9-410C-BB0F-C0D3016DD025}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="9.06640625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="67">
+        <v>808080</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="68">
+        <v>595959</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="69">
+        <v>404040</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="70">
+        <v>262626</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="66">
+        <v>808080</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFF494D-E33F-4062-9C46-C891B7E14E9B}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>4</v>
+      </c>
+      <c r="D1">
+        <v>8</v>
+      </c>
+      <c r="E1">
+        <v>16</v>
+      </c>
+      <c r="F1">
+        <v>32</v>
+      </c>
+      <c r="G1">
+        <v>64</v>
+      </c>
+      <c r="H1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>32</v>
+      </c>
+      <c r="F2">
+        <v>64</v>
+      </c>
+      <c r="G2">
+        <v>128</v>
+      </c>
+      <c r="H2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>48</v>
+      </c>
+      <c r="F3">
+        <v>96</v>
+      </c>
+      <c r="G3">
+        <v>192</v>
+      </c>
+      <c r="H3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>64</v>
+      </c>
+      <c r="F4">
+        <v>128</v>
+      </c>
+      <c r="G4">
+        <v>256</v>
+      </c>
+      <c r="H4">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>80</v>
+      </c>
+      <c r="F5">
+        <v>160</v>
+      </c>
+      <c r="G5">
+        <v>320</v>
+      </c>
+      <c r="H5">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <v>96</v>
+      </c>
+      <c r="F6">
+        <v>192</v>
+      </c>
+      <c r="G6">
+        <v>384</v>
+      </c>
+      <c r="H6">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>56</v>
+      </c>
+      <c r="E7">
+        <v>112</v>
+      </c>
+      <c r="F7">
+        <v>224</v>
+      </c>
+      <c r="G7">
+        <v>448</v>
+      </c>
+      <c r="H7">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>64</v>
+      </c>
+      <c r="E8">
+        <v>128</v>
+      </c>
+      <c r="F8">
+        <v>256</v>
+      </c>
+      <c r="G8">
+        <v>512</v>
+      </c>
+      <c r="H8">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>72</v>
+      </c>
+      <c r="E9">
+        <v>144</v>
+      </c>
+      <c r="F9">
+        <v>288</v>
+      </c>
+      <c r="G9">
+        <v>576</v>
+      </c>
+      <c r="H9">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>80</v>
+      </c>
+      <c r="E10">
+        <v>160</v>
+      </c>
+      <c r="F10">
+        <v>320</v>
+      </c>
+      <c r="G10">
+        <v>640</v>
+      </c>
+      <c r="H10">
+        <v>1280</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F046BF78-3EB9-4B5E-AA97-2DEAA69453B1}">
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L24" s="58"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>